--- a/Code/SampleRun_Environment_Solar/1500Scens/1500_Naive_CI.xlsx
+++ b/Code/SampleRun_Environment_Solar/1500Scens/1500_Naive_CI.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\A_Uni\HiWi\ArticleSubgradient\Code\SampleRun_Environment_Solar\1500Scens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{779DAAEF-A308-40E4-94DD-40521B53F16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD13459-749D-41BC-9DFE-475797CF37A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -481,7 +481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F481"/>
   <sheetViews>
     <sheetView topLeftCell="A445" zoomScaleNormal="100" workbookViewId="0">
@@ -8919,11 +8919,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:Q32"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9510,8 +9510,8 @@
         <v>10</v>
       </c>
       <c r="M19" s="5">
-        <f>AVERAGE(D42:D45,D47:D57,D59:D61)</f>
-        <v>0.17803722222222221</v>
+        <f>AVERAGE(D42:D61)</f>
+        <v>0.26023350000000001</v>
       </c>
       <c r="O19" t="s">
         <v>13</v>
@@ -9554,13 +9554,13 @@
       <c r="O20" t="s">
         <v>14</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="5">
         <f>M19-1.96*M23/(SQRT(20))</f>
-        <v>0.17097146786122852</v>
-      </c>
-      <c r="Q20">
+        <v>0.15195349721287305</v>
+      </c>
+      <c r="Q20" s="5">
         <f>M19+1.96*M23/(SQRT(20))</f>
-        <v>0.18510297658321589</v>
+        <v>0.36851350278712697</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -9647,8 +9647,8 @@
         <v>14</v>
       </c>
       <c r="M23">
-        <f>_xlfn.STDEV.P(D42:D45,D47:D57,D59:D61)</f>
-        <v>1.6121945983160677E-2</v>
+        <f>_xlfn.STDEV.P(D42:D61)</f>
+        <v>0.24706270085294138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">

--- a/Code/SampleRun_Environment_Solar/1500Scens/1500_Naive_CI.xlsx
+++ b/Code/SampleRun_Environment_Solar/1500Scens/1500_Naive_CI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\A_Uni\HiWi\ArticleSubgradient\Code\SampleRun_Environment_Solar\1500Scens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD13459-749D-41BC-9DFE-475797CF37A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F85FB2-B1D0-4920-983B-B66A38EFDDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8922,8 +8922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9024,11 +9024,11 @@
       </c>
       <c r="P3">
         <f>M2+(-1.96)*M6/(SQRT(20))</f>
-        <v>236.09753305312702</v>
+        <v>236.04550523459804</v>
       </c>
       <c r="Q3">
         <f>M2+1.96*M6/(SQRT(20))</f>
-        <v>240.10300794687296</v>
+        <v>240.15503576540195</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -9062,11 +9062,11 @@
       </c>
       <c r="P4">
         <f>M3-1.96*M7/(SQRT(20))</f>
-        <v>0.10034163846200429</v>
+        <v>0.10016257327809601</v>
       </c>
       <c r="Q4">
         <f>M3+1.96*M7/(SQRT(20))</f>
-        <v>0.11412736153799567</v>
+        <v>0.11430642672190396</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
@@ -9096,11 +9096,11 @@
       </c>
       <c r="P5">
         <f>M4-1.96*M8/(SQRT(20))</f>
-        <v>4211.0973361373772</v>
+        <v>4211.0881745113866</v>
       </c>
       <c r="Q5">
         <f>M4+1.96*M8/(SQRT(20))</f>
-        <v>4211.8026638626225</v>
+        <v>4211.8118254886131</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
@@ -9126,8 +9126,8 @@
         <v>13</v>
       </c>
       <c r="M6">
-        <f>_xlfn.STDEV.P(E2:E21)</f>
-        <v>4.569650073767658</v>
+        <f>_xlfn.STDEV.S(E2:E21)</f>
+        <v>4.6883620522899436</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
@@ -9153,8 +9153,8 @@
         <v>14</v>
       </c>
       <c r="M7">
-        <f>_xlfn.STDEV.P(D2:D21)</f>
-        <v>1.5727456080053187E-2</v>
+        <f>_xlfn.STDEV.S(D2:D21)</f>
+        <v>1.6136029471504616E-2</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
@@ -9180,8 +9180,8 @@
         <v>15</v>
       </c>
       <c r="M8">
-        <f>_xlfn.STDEV.P(F2:F21)</f>
-        <v>0.8046738469715542</v>
+        <f>_xlfn.STDEV.S(F2:F21)</f>
+        <v>0.82557794748189672</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="P11">
         <f>M10+(-1.96)*M14/(SQRT(20))</f>
-        <v>233.3972144851827</v>
+        <v>233.33820689217461</v>
       </c>
       <c r="Q11">
         <f>M10+1.96*M14/(SQRT(20))</f>
-        <v>237.94004251481726</v>
+        <v>237.99905010782535</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
@@ -9309,11 +9309,11 @@
       </c>
       <c r="P12">
         <f>M11-1.96*M15/(SQRT(20))</f>
-        <v>0.14879940442729861</v>
+        <v>0.14859097762569815</v>
       </c>
       <c r="Q12">
         <f>M11+1.96*M15/(SQRT(20))</f>
-        <v>0.1648455955727014</v>
+        <v>0.16505402237430186</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
@@ -9343,11 +9343,11 @@
       </c>
       <c r="P13">
         <f>M12-1.96*M16/(SQRT(20))</f>
-        <v>4210.6257103146872</v>
+        <v>4210.617285803065</v>
       </c>
       <c r="Q13">
         <f>M12+1.96*M16/(SQRT(20))</f>
-        <v>4211.2742896853124</v>
+        <v>4211.2827141969346</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
@@ -9373,8 +9373,8 @@
         <v>13</v>
       </c>
       <c r="M14">
-        <f>_xlfn.STDEV.P(E22:E41)</f>
-        <v>5.1826899409971237</v>
+        <f>_xlfn.STDEV.S(E22:E41)</f>
+        <v>5.3173276850325335</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
@@ -9400,8 +9400,8 @@
         <v>14</v>
       </c>
       <c r="M15">
-        <f>_xlfn.STDEV.P(D22:D41)</f>
-        <v>1.8306313357691735E-2</v>
+        <f>_xlfn.STDEV.S(D22:D41)</f>
+        <v>1.8781881211479008E-2</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
@@ -9427,8 +9427,8 @@
         <v>15</v>
       </c>
       <c r="M16">
-        <f>_xlfn.STDEV.P(F22:F41)</f>
-        <v>0.73993242934743719</v>
+        <f>_xlfn.STDEV.S(F22:F41)</f>
+        <v>0.75915465451624831</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -9518,11 +9518,11 @@
       </c>
       <c r="P19">
         <f>M18+(-1.96)*M22/(SQRT(20))</f>
-        <v>233.61428156340716</v>
+        <v>233.56014838155721</v>
       </c>
       <c r="Q19">
         <f>M18+1.96*M22/(SQRT(20))</f>
-        <v>237.78184243659283</v>
+        <v>237.83597561844277</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -9556,11 +9556,11 @@
       </c>
       <c r="P20" s="5">
         <f>M19-1.96*M23/(SQRT(20))</f>
-        <v>0.15195349721287305</v>
+        <v>0.14914056117668761</v>
       </c>
       <c r="Q20" s="5">
         <f>M19+1.96*M23/(SQRT(20))</f>
-        <v>0.36851350278712697</v>
+        <v>0.3713264388233124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -9590,11 +9590,11 @@
       </c>
       <c r="P21">
         <f>M20-1.96*M24/(SQRT(20))</f>
-        <v>4210.2513194261064</v>
+        <v>4210.2409623617878</v>
       </c>
       <c r="Q21">
         <f>M20+1.96*M24/(SQRT(20))</f>
-        <v>4211.0486805738929</v>
+        <v>4211.0590376382115</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -9620,8 +9620,8 @@
         <v>13</v>
       </c>
       <c r="M22">
-        <f>_xlfn.STDEV.P(E42:E61)</f>
-        <v>4.7545660269446248</v>
+        <f>_xlfn.STDEV.S(E42:E61)</f>
+        <v>4.8780818172047038</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -9647,8 +9647,8 @@
         <v>14</v>
       </c>
       <c r="M23">
-        <f>_xlfn.STDEV.P(D42:D61)</f>
-        <v>0.24706270085294138</v>
+        <f>_xlfn.STDEV.S(D42:D61)</f>
+        <v>0.25348098268280822</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -9674,8 +9674,8 @@
         <v>15</v>
       </c>
       <c r="M24">
-        <f>_xlfn.STDEV.P(F42:F61)</f>
-        <v>0.90967026993301259</v>
+        <f>_xlfn.STDEV.S(F42:F61)</f>
+        <v>0.93330200448672951</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -9765,11 +9765,11 @@
       </c>
       <c r="P27">
         <f>M26+(-1.96)*M30/(SQRT(20))</f>
-        <v>233.85719605260294</v>
+        <v>233.80421465967953</v>
       </c>
       <c r="Q27">
         <f>M26+1.96*M30/(SQRT(20))</f>
-        <v>237.93608394739704</v>
+        <v>237.98906534032045</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -9803,11 +9803,11 @@
       </c>
       <c r="P28">
         <f>M27-1.96*M31/(SQRT(20))</f>
-        <v>0.18925312521046797</v>
+        <v>0.11725887245477744</v>
       </c>
       <c r="Q28">
         <f>M27+1.96*M31/(SQRT(20))</f>
-        <v>0.20341845373690046</v>
+        <v>0.27541270649259098</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -9837,11 +9837,11 @@
       </c>
       <c r="P29">
         <f>M28-1.96*M32/(SQRT(20))</f>
-        <v>4210.7846289652334</v>
+        <v>4210.7725393926421</v>
       </c>
       <c r="Q29">
         <f>M28+1.96*M32/(SQRT(20))</f>
-        <v>4211.7153710347666</v>
+        <v>4211.7274606073579</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -9867,8 +9867,8 @@
         <v>13</v>
       </c>
       <c r="M30">
-        <f>_xlfn.STDEV.P(E62:E81)</f>
-        <v>4.6534033700819428</v>
+        <f>_xlfn.STDEV.S(E62:E81)</f>
+        <v>4.7742911212241745</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -9894,8 +9894,8 @@
         <v>14</v>
       </c>
       <c r="M31">
-        <f>_xlfn.STDEV.P(D62:D75,D77:D81)</f>
-        <v>1.6160529341183647E-2</v>
+        <f>_xlfn.STDEV.S(D62:D81)</f>
+        <v>0.18042996112794449</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -9921,8 +9921,8 @@
         <v>15</v>
       </c>
       <c r="M32">
-        <f>_xlfn.STDEV.P(F50:F69)</f>
-        <v>1.0618380290797651</v>
+        <f>_xlfn.STDEV.S(F50:F69)</f>
+        <v>1.0894228312566052</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">

--- a/Code/SampleRun_Environment_Solar/1500Scens/1500_Naive_CI.xlsx
+++ b/Code/SampleRun_Environment_Solar/1500Scens/1500_Naive_CI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\A_Uni\HiWi\ArticleSubgradient\Code\SampleRun_Environment_Solar\1500Scens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F85FB2-B1D0-4920-983B-B66A38EFDDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F9A3FD-3B11-4D3D-8876-DE75B50E2502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="16">
   <si>
     <t>Instance</t>
   </si>
@@ -54,15 +54,6 @@
   </si>
   <si>
     <t>Time Naive</t>
-  </si>
-  <si>
-    <t>CI Time</t>
-  </si>
-  <si>
-    <t>CI Objective</t>
-  </si>
-  <si>
-    <t>CI Gap</t>
   </si>
   <si>
     <t>Mean Obj:</t>
@@ -90,6 +81,9 @@
   </si>
   <si>
     <t>obere:</t>
+  </si>
+  <si>
+    <t>t dist 95%</t>
   </si>
 </sst>
 </file>
@@ -158,7 +152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -167,6 +161,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -8920,15 +8916,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="20" max="20" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8947,20 +8946,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
       <c r="L1" s="4">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8980,20 +8973,26 @@
         <v>4212</v>
       </c>
       <c r="L2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M2">
         <f>SUM(E2:E21)/20</f>
         <v>238.10027049999999</v>
       </c>
       <c r="O2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="S2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10</v>
       </c>
@@ -9013,14 +9012,14 @@
         <v>4210</v>
       </c>
       <c r="L3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M3">
         <f>SUM(D2:D21)/20</f>
         <v>0.10723449999999998</v>
       </c>
       <c r="O3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P3">
         <f>M2+(-1.96)*M6/(SQRT(20))</f>
@@ -9030,8 +9029,19 @@
         <f>M2+1.96*M6/(SQRT(20))</f>
         <v>240.15503576540195</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <f>M2+(-$H$10)*M6/(SQRT(20))</f>
+        <v>235.90604951701584</v>
+      </c>
+      <c r="U3">
+        <f>M2+$H$10*M6/(SQRT(20))</f>
+        <v>240.29449148298414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>11</v>
       </c>
@@ -9051,14 +9061,14 @@
         <v>4212</v>
       </c>
       <c r="L4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M4">
         <f>SUM(F2:F21)/20</f>
         <v>4211.45</v>
       </c>
       <c r="O4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P4">
         <f>M3-1.96*M7/(SQRT(20))</f>
@@ -9068,8 +9078,19 @@
         <f>M3+1.96*M7/(SQRT(20))</f>
         <v>0.11430642672190396</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4">
+        <f>M3+(-$H$10)*M7/(SQRT(20))</f>
+        <v>9.9682605744919425E-2</v>
+      </c>
+      <c r="U4">
+        <f>M3+$H$10*M7/(SQRT(20))</f>
+        <v>0.11478639425508054</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>12</v>
       </c>
@@ -9089,10 +9110,10 @@
         <v>4211</v>
       </c>
       <c r="L5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" t="s">
         <v>12</v>
-      </c>
-      <c r="O5" t="s">
-        <v>15</v>
       </c>
       <c r="P5">
         <f>M4-1.96*M8/(SQRT(20))</f>
@@ -9102,8 +9123,19 @@
         <f>M4+1.96*M8/(SQRT(20))</f>
         <v>4211.8118254886131</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5">
+        <f>M4+(-$H$10)*M8/(SQRT(20))</f>
+        <v>4211.0636176269554</v>
+      </c>
+      <c r="U5">
+        <f>M4+$H$10*M8/(SQRT(20))</f>
+        <v>4211.8363823730442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>13</v>
       </c>
@@ -9123,14 +9155,14 @@
         <v>4211</v>
       </c>
       <c r="L6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M6">
         <f>_xlfn.STDEV.S(E2:E21)</f>
         <v>4.6883620522899436</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>14</v>
       </c>
@@ -9150,14 +9182,14 @@
         <v>4210</v>
       </c>
       <c r="L7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M7">
         <f>_xlfn.STDEV.S(D2:D21)</f>
         <v>1.6136029471504616E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>15</v>
       </c>
@@ -9177,14 +9209,14 @@
         <v>4212</v>
       </c>
       <c r="L8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M8">
         <f>_xlfn.STDEV.S(F2:F21)</f>
         <v>0.82557794748189672</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>16</v>
       </c>
@@ -9207,7 +9239,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>17</v>
       </c>
@@ -9226,21 +9258,28 @@
       <c r="F10" s="1">
         <v>4211</v>
       </c>
+      <c r="H10">
+        <f>_xlfn.T.INV(0.975,19)</f>
+        <v>2.0930240544083087</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.95</v>
+      </c>
       <c r="L10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M10">
         <f>AVERAGE(E22:E41)</f>
         <v>235.66862849999998</v>
       </c>
       <c r="O10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>18</v>
       </c>
@@ -9259,15 +9298,22 @@
       <c r="F11" s="1">
         <v>4212</v>
       </c>
+      <c r="H11">
+        <f>_xlfn.T.INV(0.9875,19)</f>
+        <v>2.4334402113749714</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.97499999999999998</v>
+      </c>
       <c r="L11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M11" s="5">
         <f>AVERAGE(D22:D41)</f>
         <v>0.1568225</v>
       </c>
       <c r="O11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P11">
         <f>M10+(-1.96)*M14/(SQRT(20))</f>
@@ -9277,8 +9323,19 @@
         <f>M10+1.96*M14/(SQRT(20))</f>
         <v>237.99905010782535</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T11">
+        <f>M10+(-$H$10)*M14/(SQRT(20))</f>
+        <v>233.18004253974928</v>
+      </c>
+      <c r="U11">
+        <f>M10+$H$10*M14/(SQRT(20))</f>
+        <v>238.15721446025069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>19</v>
       </c>
@@ -9298,14 +9355,14 @@
         <v>4212</v>
       </c>
       <c r="L12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M12">
         <f>AVERAGE(F22:F41)</f>
         <v>4210.95</v>
       </c>
       <c r="O12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P12">
         <f>M11-1.96*M15/(SQRT(20))</f>
@@ -9315,8 +9372,19 @@
         <f>M11+1.96*M15/(SQRT(20))</f>
         <v>0.16505402237430186</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S12" t="s">
+        <v>11</v>
+      </c>
+      <c r="T12">
+        <f>M11+(-$H$10)*M15/(SQRT(20))</f>
+        <v>0.1480323090133602</v>
+      </c>
+      <c r="U12">
+        <f>M11+$H$10*M15/(SQRT(20))</f>
+        <v>0.1656126909866398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
@@ -9336,10 +9404,10 @@
         <v>4213</v>
       </c>
       <c r="L13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" t="s">
         <v>12</v>
-      </c>
-      <c r="O13" t="s">
-        <v>15</v>
       </c>
       <c r="P13">
         <f>M12-1.96*M16/(SQRT(20))</f>
@@ -9349,8 +9417,19 @@
         <f>M12+1.96*M16/(SQRT(20))</f>
         <v>4211.2827141969346</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S13" t="s">
+        <v>12</v>
+      </c>
+      <c r="T13">
+        <f>M12+(-$H$10)*M16/(SQRT(20))</f>
+        <v>4210.5947046849851</v>
+      </c>
+      <c r="U13">
+        <f>M12+$H$10*M16/(SQRT(20))</f>
+        <v>4211.3052953150145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>20</v>
       </c>
@@ -9370,14 +9449,14 @@
         <v>4212</v>
       </c>
       <c r="L14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M14">
         <f>_xlfn.STDEV.S(E22:E41)</f>
         <v>5.3173276850325335</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>3</v>
       </c>
@@ -9397,14 +9476,14 @@
         <v>4212</v>
       </c>
       <c r="L15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M15">
         <f>_xlfn.STDEV.S(D22:D41)</f>
         <v>1.8781881211479008E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>4</v>
       </c>
@@ -9424,14 +9503,14 @@
         <v>4212</v>
       </c>
       <c r="L16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M16">
         <f>_xlfn.STDEV.S(F22:F41)</f>
         <v>0.75915465451624831</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>5</v>
       </c>
@@ -9454,7 +9533,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>6</v>
       </c>
@@ -9474,20 +9553,20 @@
         <v>4211</v>
       </c>
       <c r="L18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M18">
         <f>AVERAGE(E42:E61)</f>
         <v>235.69806199999999</v>
       </c>
       <c r="O18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>7</v>
       </c>
@@ -9507,14 +9586,14 @@
         <v>4211</v>
       </c>
       <c r="L19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M19" s="5">
         <f>AVERAGE(D42:D61)</f>
         <v>0.26023350000000001</v>
       </c>
       <c r="O19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P19">
         <f>M18+(-1.96)*M22/(SQRT(20))</f>
@@ -9524,8 +9603,19 @@
         <f>M18+1.96*M22/(SQRT(20))</f>
         <v>237.83597561844277</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S19" t="s">
+        <v>10</v>
+      </c>
+      <c r="T19">
+        <f>M18+(-$H$10)*M22/(SQRT(20))</f>
+        <v>233.41504943385314</v>
+      </c>
+      <c r="U19">
+        <f>M18+$H$10*M22/(SQRT(20))</f>
+        <v>237.98107456614684</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>8</v>
       </c>
@@ -9545,14 +9635,14 @@
         <v>4210</v>
       </c>
       <c r="L20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M20">
         <f>AVERAGE(F42:F61)</f>
         <v>4210.6499999999996</v>
       </c>
       <c r="O20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P20" s="5">
         <f>M19-1.96*M23/(SQRT(20))</f>
@@ -9562,8 +9652,19 @@
         <f>M19+1.96*M23/(SQRT(20))</f>
         <v>0.3713264388233124</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S20" t="s">
+        <v>11</v>
+      </c>
+      <c r="T20" s="7">
+        <f>M19+(-$H$10)*M23/(SQRT(20))</f>
+        <v>0.14160074835096759</v>
+      </c>
+      <c r="U20" s="7">
+        <f>M19+$H$10*M23/(SQRT(20))</f>
+        <v>0.37886625164903243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>9</v>
       </c>
@@ -9583,10 +9684,10 @@
         <v>4211</v>
       </c>
       <c r="L21" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" t="s">
         <v>12</v>
-      </c>
-      <c r="O21" t="s">
-        <v>15</v>
       </c>
       <c r="P21">
         <f>M20-1.96*M24/(SQRT(20))</f>
@@ -9596,8 +9697,19 @@
         <f>M20+1.96*M24/(SQRT(20))</f>
         <v>4211.0590376382115</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S21" t="s">
+        <v>12</v>
+      </c>
+      <c r="T21">
+        <f>M20+(-$H$10)*M24/(SQRT(20))</f>
+        <v>4210.2132012163593</v>
+      </c>
+      <c r="U21">
+        <f>M20+$H$10*M24/(SQRT(20))</f>
+        <v>4211.08679878364</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
@@ -9617,14 +9729,14 @@
         <v>4210</v>
       </c>
       <c r="L22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M22">
         <f>_xlfn.STDEV.S(E42:E61)</f>
         <v>4.8780818172047038</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>10</v>
       </c>
@@ -9644,14 +9756,14 @@
         <v>4211</v>
       </c>
       <c r="L23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M23">
         <f>_xlfn.STDEV.S(D42:D61)</f>
         <v>0.25348098268280822</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>11</v>
       </c>
@@ -9671,14 +9783,14 @@
         <v>4211</v>
       </c>
       <c r="L24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M24">
         <f>_xlfn.STDEV.S(F42:F61)</f>
         <v>0.93330200448672951</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>12</v>
       </c>
@@ -9701,7 +9813,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>13</v>
       </c>
@@ -9721,20 +9833,20 @@
         <v>4211</v>
       </c>
       <c r="L26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M26">
         <f>AVERAGE(E62:E81)</f>
         <v>235.89663999999999</v>
       </c>
       <c r="O26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>14</v>
       </c>
@@ -9754,14 +9866,14 @@
         <v>4211</v>
       </c>
       <c r="L27" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M27" s="5">
         <f>AVERAGE(D62:D75,D77:D81)</f>
         <v>0.19633578947368421</v>
       </c>
       <c r="O27" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P27">
         <f>M26+(-1.96)*M30/(SQRT(20))</f>
@@ -9771,8 +9883,19 @@
         <f>M26+1.96*M30/(SQRT(20))</f>
         <v>237.98906534032045</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S27" t="s">
+        <v>10</v>
+      </c>
+      <c r="T27">
+        <f>M26+(-$H$10)*M30/(SQRT(20))</f>
+        <v>233.66220297482437</v>
+      </c>
+      <c r="U27">
+        <f>M26+$H$10*M30/(SQRT(20))</f>
+        <v>238.13107702517561</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>15</v>
       </c>
@@ -9792,14 +9915,14 @@
         <v>4210</v>
       </c>
       <c r="L28" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M28">
         <f>AVERAGE(F62:F81)</f>
         <v>4211.25</v>
       </c>
       <c r="O28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P28">
         <f>M27-1.96*M31/(SQRT(20))</f>
@@ -9809,8 +9932,19 @@
         <f>M27+1.96*M31/(SQRT(20))</f>
         <v>0.27541270649259098</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S28" t="s">
+        <v>11</v>
+      </c>
+      <c r="T28">
+        <f>M27+(-$H$10)*M31/(SQRT(20))</f>
+        <v>0.11189196831602009</v>
+      </c>
+      <c r="U28">
+        <f>M27+$H$10*M31/(SQRT(20))</f>
+        <v>0.28077961063134832</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>16</v>
       </c>
@@ -9830,10 +9964,10 @@
         <v>4210</v>
       </c>
       <c r="L29" t="s">
+        <v>9</v>
+      </c>
+      <c r="O29" t="s">
         <v>12</v>
-      </c>
-      <c r="O29" t="s">
-        <v>15</v>
       </c>
       <c r="P29">
         <f>M28-1.96*M32/(SQRT(20))</f>
@@ -9843,8 +9977,19 @@
         <f>M28+1.96*M32/(SQRT(20))</f>
         <v>4211.7274606073579</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S29" t="s">
+        <v>12</v>
+      </c>
+      <c r="T29">
+        <f>M28+(-$H$10)*M32/(SQRT(20))</f>
+        <v>4210.740134420289</v>
+      </c>
+      <c r="U29">
+        <f>M28+$H$10*M32/(SQRT(20))</f>
+        <v>4211.759865579711</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>17</v>
       </c>
@@ -9864,14 +10009,14 @@
         <v>4212</v>
       </c>
       <c r="L30" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M30">
         <f>_xlfn.STDEV.S(E62:E81)</f>
         <v>4.7742911212241745</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>18</v>
       </c>
@@ -9891,14 +10036,14 @@
         <v>4212</v>
       </c>
       <c r="L31" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M31">
         <f>_xlfn.STDEV.S(D62:D81)</f>
         <v>0.18042996112794449</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>19</v>
       </c>
@@ -9918,7 +10063,7 @@
         <v>4212</v>
       </c>
       <c r="L32" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M32">
         <f>_xlfn.STDEV.S(F50:F69)</f>
